--- a/testData/linux_resource_test_data.xlsx
+++ b/testData/linux_resource_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="add_linux_resource" sheetId="5" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="check_linux_account" sheetId="18" r:id="rId10"/>
     <sheet name="query_linux_account" sheetId="19" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="163">
   <si>
     <t>测试点说明</t>
   </si>
@@ -727,10 +727,6 @@
   </si>
   <si>
     <t>删除RedHat15资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyya</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1238,22 +1234,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="32.625" customWidth="1"/>
-    <col min="5" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="15" width="32.375" customWidth="1"/>
-    <col min="16" max="16" width="42.375" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="15" width="32.33203125" customWidth="1"/>
+    <col min="16" max="16" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75">
+    <row r="1" spans="1:16" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.25">
+    <row r="2" spans="1:16" ht="15.6">
       <c r="A2" s="4" t="s">
         <v>157</v>
       </c>
@@ -1329,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>19</v>
@@ -1353,7 +1349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.25">
+    <row r="3" spans="1:16" ht="15.6">
       <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1403,7 +1399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25">
+    <row r="4" spans="1:16" ht="15.6">
       <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
@@ -1467,19 +1463,19 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.625" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="28.125" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
@@ -1531,7 +1527,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="9" t="s">
         <v>113</v>
       </c>
@@ -1557,7 +1553,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="9" t="s">
         <v>118</v>
       </c>
@@ -1583,7 +1579,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="9" t="s">
         <v>118</v>
       </c>
@@ -1609,7 +1605,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="9" t="s">
         <v>119</v>
       </c>
@@ -1635,7 +1631,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="9" t="s">
         <v>123</v>
       </c>
@@ -1661,7 +1657,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8" ht="15.6">
       <c r="A8" s="9" t="s">
         <v>125</v>
       </c>
@@ -1687,7 +1683,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="4" t="s">
         <v>149</v>
       </c>
@@ -1725,16 +1721,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.375" customWidth="1"/>
-    <col min="2" max="2" width="41.875" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="4" t="s">
         <v>128</v>
       </c>
@@ -1766,7 +1762,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="9" t="s">
         <v>107</v>
       </c>
@@ -1779,7 +1775,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="10" t="s">
         <v>108</v>
       </c>
@@ -1792,7 +1788,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="10" t="s">
         <v>109</v>
       </c>
@@ -1821,27 +1817,27 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="39.125" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="17.75" customWidth="1"/>
-    <col min="11" max="11" width="15.375" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="19.125" customWidth="1"/>
-    <col min="14" max="14" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
+    <col min="14" max="14" width="21.21875" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="31.25" customWidth="1"/>
+    <col min="16" max="16" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75">
+    <row r="1" spans="1:16" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.25">
+    <row r="2" spans="1:16" ht="15.6">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -1955,18 +1951,18 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.375" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +1985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -2004,7 +2000,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -2019,7 +2015,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="10" t="s">
         <v>41</v>
       </c>
@@ -2038,7 +2034,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
@@ -2053,7 +2049,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25">
+    <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="10" t="s">
         <v>44</v>
       </c>
@@ -2068,7 +2064,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25">
+    <row r="7" spans="1:7" ht="15.6">
       <c r="A7" s="10" t="s">
         <v>37</v>
       </c>
@@ -2083,7 +2079,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="10" t="s">
         <v>38</v>
       </c>
@@ -2098,7 +2094,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25">
+    <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="10" t="s">
         <v>132</v>
       </c>
@@ -2130,23 +2126,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="34.25" customWidth="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="37.875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2175,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25">
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="9" t="s">
         <v>55</v>
       </c>
@@ -2202,12 +2198,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>56</v>
@@ -2229,7 +2225,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -2258,7 +2254,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="4" t="s">
         <v>151</v>
       </c>
@@ -2287,12 +2283,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>56</v>
@@ -2316,7 +2312,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="4" t="s">
         <v>58</v>
       </c>
@@ -2345,7 +2341,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -2374,7 +2370,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="4" t="s">
         <v>63</v>
       </c>
@@ -2403,7 +2399,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -2432,7 +2428,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="4" t="s">
         <v>71</v>
       </c>
@@ -2461,7 +2457,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.25">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="4" t="s">
         <v>72</v>
       </c>
@@ -2490,7 +2486,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.25">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -2519,7 +2515,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.25">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -2565,15 +2561,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.25" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="27.875" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2587,7 +2583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="15.6">
       <c r="A2" s="4" t="s">
         <v>159</v>
       </c>
@@ -2601,7 +2597,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" spans="1:4" ht="15.6">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -2615,7 +2611,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
+    <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="4" t="s">
         <v>154</v>
       </c>
@@ -2643,14 +2639,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2661,7 +2657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -2686,18 +2682,18 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.125" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="38.125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="8" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2726,7 +2722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25">
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="9" t="s">
         <v>97</v>
       </c>
@@ -2755,7 +2751,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="9" t="s">
         <v>95</v>
       </c>
@@ -2784,7 +2780,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="9" t="s">
         <v>98</v>
       </c>
@@ -2813,7 +2809,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="9" t="s">
         <v>99</v>
       </c>
@@ -2842,7 +2838,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="9" t="s">
         <v>100</v>
       </c>
@@ -2885,16 +2881,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="31.75" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2911,7 +2907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="4" t="s">
         <v>104</v>
       </c>
@@ -2942,15 +2938,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="42.25" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2964,7 +2960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="15.6">
       <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
